--- a/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-practitioner.xlsx
+++ b/jpcore-r4/feature/v1.1.1-kohe-uploadtest-etc/StructureDefinition-jp-practitioner.xlsx
@@ -1208,7 +1208,7 @@
 医籍登録番号のsystemはFixed Valueの urn:oid:1.2.392.100495.20.3.31 を使用する。</t>
   </si>
   <si>
-    <t xml:space="preserve">value:code}
+    <t xml:space="preserve">pattern:code}
 </t>
   </si>
   <si>
